--- a/medicine/Enfance/Maurice_Sendak/Maurice_Sendak.xlsx
+++ b/medicine/Enfance/Maurice_Sendak/Maurice_Sendak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Bernard Sendak (né le 10 juin 1928 à Brooklyn à New York et mort le 8 mai 2012 à Danbury dans le Connecticut[1]) est un auteur et illustrateur de littérature d'enfance et de jeunesse, célèbre pour son album Max et les maximonstres publié en 1963.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Bernard Sendak (né le 10 juin 1928 à Brooklyn à New York et mort le 8 mai 2012 à Danbury dans le Connecticut) est un auteur et illustrateur de littérature d'enfance et de jeunesse, célèbre pour son album Max et les maximonstres publié en 1963.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille d'immigrants juifs-polonais, Maurice Sendak grandit à Brooklyn, New York. Enfant souffreteux, Sendak décide, à l'âge de douze ans, sous l'influence du film de Walt Disney Fantasia, de devenir illustrateur pour enfants. Ses dessins sont d'abord publiés dans un livre d'histoire de 1947 intitulé Atomics for the Millions, et il passe les années 1950 à se faire un nom comme illustrateur prolifique de livres pour enfants, écrits par des auteurs classiques ou contemporains.
 Son premier album en tant qu'auteur-illustrateur parait en 1956 : Kenny’s  Windows (Harper). Il a été traduit en français par Françoise Morvan sous le titre La Fenêtre de Kenny en juin 2016 (éditions MeMo). Son deuxième album, Very Far Away a été traduit par la même traductrice pour le même éditeur sous le titre Loin, très loin en septembre 2016.
 Il rencontre le succès international avec Max et les maximonstres (Where the Wild Things Are), bien que les représentations de monstres aux dents pointues inquiètent les parents lors de la sortie de l'album. L'attirance de Sendak pour les aspects sombres, transgressifs, cauchemardesques de l'imaginaire enfantin a fait de lui un sujet de controverse dans certains pays.
-Son album incontournable de 1970, Cuisine de nuit (In the Night Kitchen), a régulièrement subi la censure parce qu'il présente des images d'un petit garçon gambadant nu, en toute innocence, durant toute l'histoire. Le livre a été interdit dans plusieurs pays ; dans d'autres, il aurait été retouché de façon que le jeune héros y apparaisse vêtu d'une couche – mais ce n'est là qu'une rumeur. (Cuisine de nuit apparaît régulièrement sur la liste des « livres les plus fréquemment contestés et interdits » de l'Association des bibliothèques américaines, y compris une 21e place sur les « 100 livres les plus contestés de 1990-1999 »[2].) Pourtant, l’album est un hommage à Winsor McCay, célèbre dessinateur américain. Le style et la mise en page de Cuisine de nuit sont très proches de ceux des planches de Little Nemo.
-Max et les maximonstres et Cuisine de nuit forment avec Quand papa était loin une trilogie sur le développement de l'enfant[3]. Ce dernier album a fortement inspiré Jim Henson pour son film Labyrinthe.
+Son album incontournable de 1970, Cuisine de nuit (In the Night Kitchen), a régulièrement subi la censure parce qu'il présente des images d'un petit garçon gambadant nu, en toute innocence, durant toute l'histoire. Le livre a été interdit dans plusieurs pays ; dans d'autres, il aurait été retouché de façon que le jeune héros y apparaisse vêtu d'une couche – mais ce n'est là qu'une rumeur. (Cuisine de nuit apparaît régulièrement sur la liste des « livres les plus fréquemment contestés et interdits » de l'Association des bibliothèques américaines, y compris une 21e place sur les « 100 livres les plus contestés de 1990-1999 ».) Pourtant, l’album est un hommage à Winsor McCay, célèbre dessinateur américain. Le style et la mise en page de Cuisine de nuit sont très proches de ceux des planches de Little Nemo.
+Max et les maximonstres et Cuisine de nuit forment avec Quand papa était loin une trilogie sur le développement de l'enfant. Ce dernier album a fortement inspiré Jim Henson pour son film Labyrinthe.
 Dans les années 1970, en parallèle de ses créations et de ses travaux d'illustration, Maurice Sendak se diversifie et commence à réaliser des décors de théâtre.
 Sendak produit une adaptation télévisée en animation de son œuvre intitulée Really Rosie, avec Carole King, qui a été diffusée en 1975. Il adapte son livre Where the Wild Things Are pour le théâtre en 1979. Il illustre également des contes des frères Grimm, de Randall Jarrell, Robert Graves, ou George MacDonald, et Le Cor merveilleux de l'enfant.
 Il conçoit le décor de nombreux opéras et ballets, entre autres la représentation couverte de prix du Casse-Noisette de Tchaïkovski par le Pacific Northwest Ballet (1983) ; les représentations de La Flûte enchantée de Mozart (1981) par le grand Opéra de Houston et de Hansel et Gretel de Humperdinck (1997), la représentation d' Idoménée de Mozart par le Los Angeles County Music Center's 1990 et la représentation de La Petite Renarde rusée de Leoš Janáček par le New York City Opera en 1981.
@@ -526,8 +540,6 @@
 Il a illustré la série des Little Bear d'Else Holmelund Minarik, qui sont aussi devenus une série animée pour la télévision.
 Le long-métrage Max et les maximonstres, d'après le livre éponyme est sorti en 2009, réalisé par Spike Jonze sur un scénario de Dave Eggers, Michael Goldenberg et Jonze.
 En 2018, la traduction de La Fenêtre de Kenny par Françoise Morvan a reçu le prix Ibby International de la meilleure traduction française de livre pour enfants.
-Vie privée
-En 2008, Maurice Sendak, alors âgé de 80 ans, a révélé au cours d'une interview avec la journaliste du New York Times Patricia Cohen qu'il était homosexuel et qu'il a partagé sa vie avec Eugene Glynn, un psychanalyste américain, pendant cinquante ans. Il a tenu cette information cachée aussi longtemps parce qu'il avait peur qu'elle porte préjudice à sa carrière[4].
 </t>
         </is>
       </c>
@@ -553,13 +565,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, Maurice Sendak, alors âgé de 80 ans, a révélé au cours d'une interview avec la journaliste du New York Times Patricia Cohen qu'il était homosexuel et qu'il a partagé sa vie avec Eugene Glynn, un psychanalyste américain, pendant cinquante ans. Il a tenu cette information cachée aussi longtemps parce qu'il avait peur qu'elle porte préjudice à sa carrière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maurice_Sendak</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Sendak</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Traductions françaises
-Une histoire de Paradis et autres contes, texte de Isaac Bashevis Singer, Stock, 1967
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions françaises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Une histoire de Paradis et autres contes, texte de Isaac Bashevis Singer, Stock, 1967
 Max et les Maximonstres, Robert Delpire, 1967 ; L'école des loisirs, 1973 (traduit de : Where the Wild Things Are, 1963)
 Petit-Ours, texte de Else Holmelund Minarik, L'école des loisirs, 1970 (traduit de : Little Bear’s, 1957, par Adophe Chagot) ; nouvelle édition sous le titre : Petit Ours, L'école des loisirs, 2016 (traduit par Agnès Desarthe)
 Petit-Ours en visite, texte de Else Holmelund Minarik, L'école des loisirs, 1970 (traduit de ; Little Bear’s  Visit, 1961, par Adophe Chagot) ; nouvelle édition sous le titre : Petit Ours par en visite, L'école des loisirs, 2016 (traduit par Agnès Desarthe)
@@ -609,31 +663,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Maurice_Sendak</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Maurice_Sendak</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Finaliste Médaille Caldecott 1954 pour  A very special house (Une maison très spéciale)
 Finaliste Médaille Caldecott 1959 pour What Do You Say, Dear? (Qu'est-ce qu'on fait ?) (texte de Sesyle Joslin)
@@ -641,7 +697,7 @@
 Finaliste Médaille Caldecott 1962 pour Little Bear's Visit (Petit-Ours en visite)
 Finaliste Médaille Caldecott 1963 pour Mr. Rabbit and the Lovely Present (Monsieur le lièvre, voulez-vous m'aider ?)
 Médaille Caldecott 1964 pour Where the Wild Things Are (Max et les Maximonstres)
-(international) « Honor List » 1966[5], de l' IBBY, pour Max et les maximonstres
+(international) « Honor List » 1966, de l' IBBY, pour Max et les maximonstres
 Prix Hans Christian Andersen d'illustration 1970
 Finaliste Médaille Caldecott 1971 pour In the Night Kitchen (Cuisine de nuit)
 Boston Globe-Horn Book Award 1981, catégorie Picture Book, pour Outside Over There (Quand Papa était loin)
@@ -655,31 +711,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Maurice_Sendak</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Maurice_Sendak</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2009 : Max et les maximonstres, d'après le livre éponyme, film américain réalisé par Spike Jonze sur un scénario de Dave Eggers, Michael Goldenberg et Jonze.
 2010 : Higglety Pigglety Pop! or There Must Be More to Life, court métrage d'animation canadien, réalisé par Chris Lavis and Maciek Szczerbowski</t>
